--- a/tracking/result/tracking-jibang_20250928.xlsx
+++ b/tracking/result/tracking-jibang_20250928.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6384" uniqueCount="1334">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7261" uniqueCount="1500">
   <si>
     <t>ID</t>
   </si>
@@ -1925,7 +1925,7 @@
     <t>301동(14/49)</t>
   </si>
   <si>
-    <t>급매, 선호하는 A타입으로 넓은 펜트리, 보금자리대출가능</t>
+    <t>청주 현대백화점 앞 급매 아파트</t>
   </si>
   <si>
     <t>126B</t>
@@ -4014,6 +4014,504 @@
   </si>
   <si>
     <t>초중고인접 생활권편리 교통편리 3bay 가운데라인 (조정가)</t>
+  </si>
+  <si>
+    <t>117338</t>
+  </si>
+  <si>
+    <t>두호</t>
+  </si>
+  <si>
+    <t>두호SK뷰푸르지오1단지</t>
+  </si>
+  <si>
+    <t>752</t>
+  </si>
+  <si>
+    <t>102동(중/29)</t>
+  </si>
+  <si>
+    <t>101동(19/22)</t>
+  </si>
+  <si>
+    <t>적당한 시티단지뷰 ,출입하기편리한동집깨끗</t>
+  </si>
+  <si>
+    <t>103동(4/29)</t>
+  </si>
+  <si>
+    <t>급매 급매  최저금액. 앞동 개방감 일조권 우수 . 주인거주집상태 우수.</t>
+  </si>
+  <si>
+    <t>103동(6/29)</t>
+  </si>
+  <si>
+    <t>107동(중/23)</t>
+  </si>
+  <si>
+    <t>급매. 앞동, 트인시티뷰, 귀한84A형. 공실 즉시입주가.초품아.</t>
+  </si>
+  <si>
+    <t>108575</t>
+  </si>
+  <si>
+    <t>창포</t>
+  </si>
+  <si>
+    <t>창포메트로시티2단지</t>
+  </si>
+  <si>
+    <t>1640</t>
+  </si>
+  <si>
+    <t>83A</t>
+  </si>
+  <si>
+    <t>202동(4/30)</t>
+  </si>
+  <si>
+    <t>206동(31/31)</t>
+  </si>
+  <si>
+    <t>1인가구 거주로 깔끔해요</t>
+  </si>
+  <si>
+    <t>83C</t>
+  </si>
+  <si>
+    <t>208동(중/14)</t>
+  </si>
+  <si>
+    <t>led등교체,도배,투인원에어컨5층이상 매물</t>
+  </si>
+  <si>
+    <t>84B</t>
+  </si>
+  <si>
+    <t>214동(25/33)</t>
+  </si>
+  <si>
+    <t>214동(중/33)</t>
+  </si>
+  <si>
+    <t>시스템에어컨2대,앞동이라 개방감,바다조망 아주 좋아요.</t>
+  </si>
+  <si>
+    <t>203동(19/25)</t>
+  </si>
+  <si>
+    <t>206동(8/31)</t>
+  </si>
+  <si>
+    <t>214동(4/33)</t>
+  </si>
+  <si>
+    <t>213동(10/33)</t>
+  </si>
+  <si>
+    <t>현관 펜트리, 가격 좋고 관리 잘 된 매물입니다</t>
+  </si>
+  <si>
+    <t>204동(9/31)</t>
+  </si>
+  <si>
+    <t>210동(26/27)</t>
+  </si>
+  <si>
+    <t>216동(10/21)</t>
+  </si>
+  <si>
+    <t>216동(14/21)</t>
+  </si>
+  <si>
+    <t>시스템에어컨2대,중문,줄눈,탄성시공,안방붙박이장설치 관리잘되어 있어요</t>
+  </si>
+  <si>
+    <t>104977</t>
+  </si>
+  <si>
+    <t>우현</t>
+  </si>
+  <si>
+    <t>우현삼도뷰엔빌W(16,19블럭)</t>
+  </si>
+  <si>
+    <t>593</t>
+  </si>
+  <si>
+    <t>103동(고/23)</t>
+  </si>
+  <si>
+    <t>원룸구조입니다.</t>
+  </si>
+  <si>
+    <t>104동(11/20)</t>
+  </si>
+  <si>
+    <t>부분수리된 내부깨끗한 집입니다.</t>
+  </si>
+  <si>
+    <t>93</t>
+  </si>
+  <si>
+    <t>101동(중/22)</t>
+  </si>
+  <si>
+    <t>사생활침해가 전혀없는 라인입니다.</t>
+  </si>
+  <si>
+    <t>102동(5/18)</t>
+  </si>
+  <si>
+    <t>1년전에 보일러교체,중문,줄눈등등 부분수리된 집입니다.</t>
+  </si>
+  <si>
+    <t>103동(중/23)</t>
+  </si>
+  <si>
+    <t>170</t>
+  </si>
+  <si>
+    <t>멋진 바다뷰감상하세요.</t>
+  </si>
+  <si>
+    <t>16387</t>
+  </si>
+  <si>
+    <t>득량</t>
+  </si>
+  <si>
+    <t>포항이동삼성</t>
+  </si>
+  <si>
+    <t>758</t>
+  </si>
+  <si>
+    <t>107동(10/19)</t>
+  </si>
+  <si>
+    <t>외부 샤시올교체,거실폴딩도어, 안방 붙박이장등 리모델링된 세대. 로얄층.</t>
+  </si>
+  <si>
+    <t>108</t>
+  </si>
+  <si>
+    <t>108동(8/19)</t>
+  </si>
+  <si>
+    <t>맨앞동이라 앞산뷰로 사계절을 감상할수 있고 기운 좋은집입니다</t>
+  </si>
+  <si>
+    <t>102동(16/20)</t>
+  </si>
+  <si>
+    <t>110동(13/17)</t>
+  </si>
+  <si>
+    <t>117936</t>
+  </si>
+  <si>
+    <t>장성</t>
+  </si>
+  <si>
+    <t>장성푸르지오</t>
+  </si>
+  <si>
+    <t>1500</t>
+  </si>
+  <si>
+    <t>31</t>
+  </si>
+  <si>
+    <t>111동(18/23)</t>
+  </si>
+  <si>
+    <t>️화이트톤으로 올리모델링️</t>
+  </si>
+  <si>
+    <t>105동(13/30)</t>
+  </si>
+  <si>
+    <t>추천급매물.10층이상.시스템에어컨2대.안방드레스룸.간접조명.이쁜조경뷰</t>
+  </si>
+  <si>
+    <t>110동(4/23)</t>
+  </si>
+  <si>
+    <t>추천급매,정남향,안정적인층,트인뷰,주인거주로관리잘된집</t>
+  </si>
+  <si>
+    <t>103동(8/30)</t>
+  </si>
+  <si>
+    <t>106동(8/30)</t>
+  </si>
+  <si>
+    <t>강추천급매물.8층.남서향.방4개구조.안정적인조경뷰이쁜집</t>
+  </si>
+  <si>
+    <t>107동(30/30)</t>
+  </si>
+  <si>
+    <t>강추천급매.30층탑층.방4개.시스템에어컨4대.부분인테리어이쁜집</t>
+  </si>
+  <si>
+    <t>107동(6/30)</t>
+  </si>
+  <si>
+    <t>109동(9/28)</t>
+  </si>
+  <si>
+    <t>강추천급매.남향.6층.방3개.주방특화형.인덕션.안정적인층수</t>
+  </si>
+  <si>
+    <t>179B</t>
+  </si>
+  <si>
+    <t>179A</t>
+  </si>
+  <si>
+    <t>107745</t>
+  </si>
+  <si>
+    <t>양덕</t>
+  </si>
+  <si>
+    <t>양덕4차삼구트리니엔</t>
+  </si>
+  <si>
+    <t>1059</t>
+  </si>
+  <si>
+    <t>60</t>
+  </si>
+  <si>
+    <t>410동(24/24)</t>
+  </si>
+  <si>
+    <t>410동(5/24)</t>
+  </si>
+  <si>
+    <t>선호하는동.탑층.안방 붙박이장.줄눈시공.지상주차 여유있는 동입니다.</t>
+  </si>
+  <si>
+    <t>401동(6/24)</t>
+  </si>
+  <si>
+    <t>402동(11/24)</t>
+  </si>
+  <si>
+    <t>앞동.트인전망.아트월,인덕션,중문,줄눈,탄성시공.주인분 거주로 깔끔합니다</t>
+  </si>
+  <si>
+    <t>406동(8/24)</t>
+  </si>
+  <si>
+    <t>412동(23/24)</t>
+  </si>
+  <si>
+    <t>선호하는동.로얄층.보일러 교체.막힘없이 트인전망.일조량 좋은 남향집.</t>
+  </si>
+  <si>
+    <t>102827</t>
+  </si>
+  <si>
+    <t>두산위브더제니스</t>
+  </si>
+  <si>
+    <t>1713</t>
+  </si>
+  <si>
+    <t>166</t>
+  </si>
+  <si>
+    <t>186</t>
+  </si>
+  <si>
+    <t>248</t>
+  </si>
+  <si>
+    <t>192</t>
+  </si>
+  <si>
+    <t>255</t>
+  </si>
+  <si>
+    <t>102동(10/42)</t>
+  </si>
+  <si>
+    <t>103동(18/40)</t>
+  </si>
+  <si>
+    <t>남향.샷시.중문.시스템에어컨5대.엘리베이트3대운행.조용한동</t>
+  </si>
+  <si>
+    <t>116B</t>
+  </si>
+  <si>
+    <t>102동(9/42)</t>
+  </si>
+  <si>
+    <t>단지조망권. 조용한 산뷰,보일러교체. 시스템에어컨5대. 주인거주상태최상</t>
+  </si>
+  <si>
+    <t>104동(31/43)</t>
+  </si>
+  <si>
+    <t>104동(6/43)</t>
+  </si>
+  <si>
+    <t>고층매물.산조망권 전망최고.이중창.시스템에어컨5대</t>
+  </si>
+  <si>
+    <t>107동(7/48)</t>
+  </si>
+  <si>
+    <t>108동(14/48)</t>
+  </si>
+  <si>
+    <t>앞동 전망 좋은 라인으로 젊은 부부가 환하고 예쁘게 리모델링한 세대</t>
+  </si>
+  <si>
+    <t>146B</t>
+  </si>
+  <si>
+    <t>104동(32/43)</t>
+  </si>
+  <si>
+    <t>104동(중/43)</t>
+  </si>
+  <si>
+    <t>반듯한 남향의 초고층으로 전망 일조 최상. 내부 관리상태 최상입니다.</t>
+  </si>
+  <si>
+    <t>163A</t>
+  </si>
+  <si>
+    <t>105동(중/43)</t>
+  </si>
+  <si>
+    <t>전망 좋은 라인 컨디션 좋은 세대입니다.</t>
+  </si>
+  <si>
+    <t>164B</t>
+  </si>
+  <si>
+    <t>105동(17/43)</t>
+  </si>
+  <si>
+    <t>106동(중/43)</t>
+  </si>
+  <si>
+    <t>이중샤시 시공된 로얄층 매물로 주인 잘관리중인 예쁜집입니다</t>
+  </si>
+  <si>
+    <t>108동(41/48)</t>
+  </si>
+  <si>
+    <t>가격절충가능. 기본형.에어컨7대.엘리베이트4대운행. 세대당1.65대주차</t>
+  </si>
+  <si>
+    <t>109동(4/45)</t>
+  </si>
+  <si>
+    <t>108동(고/48)</t>
+  </si>
+  <si>
+    <t>단지조망 예쁘게 나오는 맨앞동. 편안한 조망입니다.</t>
+  </si>
+  <si>
+    <t>163</t>
+  </si>
+  <si>
+    <t>219</t>
+  </si>
+  <si>
+    <t>141064</t>
+  </si>
+  <si>
+    <t>흥해</t>
+  </si>
+  <si>
+    <t>한화포레나포항</t>
+  </si>
+  <si>
+    <t>2024</t>
+  </si>
+  <si>
+    <t>2192</t>
+  </si>
+  <si>
+    <t>109동(15/30)</t>
+  </si>
+  <si>
+    <t>일조최상,개방감 좋은 인기라인 로얄층입니다.</t>
+  </si>
+  <si>
+    <t>108동(30/30)</t>
+  </si>
+  <si>
+    <t>110동(27/30)</t>
+  </si>
+  <si>
+    <t>탑층,층간소음제로,인기있는아파트,선호하는아파트,전세가능함.</t>
+  </si>
+  <si>
+    <t>115동(8/30)</t>
+  </si>
+  <si>
+    <t>107동(17/30)</t>
+  </si>
+  <si>
+    <t>에어컨4대, 탄성, 와이드다이닝형, 엘베2대 이용 편리,단지뷰이쁨</t>
+  </si>
+  <si>
+    <t>110동(8/30)</t>
+  </si>
+  <si>
+    <t>110동(17/30)</t>
+  </si>
+  <si>
+    <t>아름다운정원뷰,해잘드는 남향, 에어콘5대,인덕션,분수공원뷰</t>
+  </si>
+  <si>
+    <t>104동(8/30)</t>
+  </si>
+  <si>
+    <t>107032</t>
+  </si>
+  <si>
+    <t>용흥</t>
+  </si>
+  <si>
+    <t>양학산KCC스위첸</t>
+  </si>
+  <si>
+    <t>111동(13/20)</t>
+  </si>
+  <si>
+    <t>푸른 산뷰.  화사하고 조용한 탑층</t>
+  </si>
+  <si>
+    <t>109동(20/20)</t>
+  </si>
+  <si>
+    <t>시내뷰 멋진 탑층. 주방 넓은 구조</t>
+  </si>
+  <si>
+    <t>105동(20/20)</t>
+  </si>
+  <si>
+    <t>111동(8/20)</t>
+  </si>
+  <si>
+    <t>탁트인 시내뷰와 푸른산뷰 멋진 탑층</t>
+  </si>
+  <si>
+    <t>101동(고/20)</t>
+  </si>
+  <si>
+    <t>바다전망 시내전망 야경멋진집</t>
   </si>
 </sst>
 </file>
@@ -4069,7 +4567,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:S383"/>
+  <dimension ref="A1:S438"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -26693,6 +27191,3251 @@
         <v>37</v>
       </c>
     </row>
+    <row r="384">
+      <c r="A384" t="s" s="0">
+        <v>1334</v>
+      </c>
+      <c r="B384" t="s" s="0">
+        <v>1167</v>
+      </c>
+      <c r="C384" t="s" s="0">
+        <v>1335</v>
+      </c>
+      <c r="D384" t="s" s="0">
+        <v>1336</v>
+      </c>
+      <c r="E384" t="s" s="0">
+        <v>379</v>
+      </c>
+      <c r="F384" t="s" s="0">
+        <v>1337</v>
+      </c>
+      <c r="G384" t="s" s="0">
+        <v>280</v>
+      </c>
+      <c r="H384" t="s" s="0">
+        <v>575</v>
+      </c>
+      <c r="I384" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="J384" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="K384" t="s">
+        <v>29</v>
+      </c>
+      <c r="L384" t="s">
+        <v>29</v>
+      </c>
+      <c r="M384" s="3">
+        <f>IFERROR(K384/J384,0)</f>
+      </c>
+      <c r="N384" t="s">
+        <v>711</v>
+      </c>
+      <c r="O384" t="s">
+        <v>86</v>
+      </c>
+      <c r="P384" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q384" t="s">
+        <v>29</v>
+      </c>
+      <c r="R384" t="s">
+        <v>29</v>
+      </c>
+      <c r="S384" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" t="s" s="0">
+        <v>1334</v>
+      </c>
+      <c r="B385" t="s" s="0">
+        <v>1167</v>
+      </c>
+      <c r="C385" t="s" s="0">
+        <v>1335</v>
+      </c>
+      <c r="D385" t="s" s="0">
+        <v>1336</v>
+      </c>
+      <c r="E385" t="s" s="0">
+        <v>379</v>
+      </c>
+      <c r="F385" t="s" s="0">
+        <v>1337</v>
+      </c>
+      <c r="G385" t="s" s="0">
+        <v>280</v>
+      </c>
+      <c r="H385" t="s" s="0">
+        <v>1138</v>
+      </c>
+      <c r="I385" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="J385" t="n" s="2">
+        <v>3.5</v>
+      </c>
+      <c r="K385" t="n" s="2">
+        <v>2.5</v>
+      </c>
+      <c r="L385" t="n" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="M385" s="3">
+        <f>IFERROR(K385/J385,0)</f>
+      </c>
+      <c r="N385" t="s">
+        <v>711</v>
+      </c>
+      <c r="O385" t="s">
+        <v>86</v>
+      </c>
+      <c r="P385" t="s">
+        <v>1338</v>
+      </c>
+      <c r="Q385" t="s">
+        <v>1339</v>
+      </c>
+      <c r="R385" t="s">
+        <v>1340</v>
+      </c>
+      <c r="S385" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" t="s" s="0">
+        <v>1334</v>
+      </c>
+      <c r="B386" t="s" s="0">
+        <v>1167</v>
+      </c>
+      <c r="C386" t="s" s="0">
+        <v>1335</v>
+      </c>
+      <c r="D386" t="s" s="0">
+        <v>1336</v>
+      </c>
+      <c r="E386" t="s" s="0">
+        <v>379</v>
+      </c>
+      <c r="F386" t="s" s="0">
+        <v>1337</v>
+      </c>
+      <c r="G386" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="H386" t="s" s="0">
+        <v>152</v>
+      </c>
+      <c r="I386" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="J386" t="n" s="2">
+        <v>3.9</v>
+      </c>
+      <c r="K386" t="n" s="2">
+        <v>2.7</v>
+      </c>
+      <c r="L386" t="n" s="2">
+        <v>1.2</v>
+      </c>
+      <c r="M386" s="3">
+        <f>IFERROR(K386/J386,0)</f>
+      </c>
+      <c r="N386" t="s">
+        <v>711</v>
+      </c>
+      <c r="O386" t="s">
+        <v>86</v>
+      </c>
+      <c r="P386" t="s">
+        <v>1341</v>
+      </c>
+      <c r="Q386" t="s">
+        <v>396</v>
+      </c>
+      <c r="R386" t="s">
+        <v>1342</v>
+      </c>
+      <c r="S386" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" t="s" s="0">
+        <v>1334</v>
+      </c>
+      <c r="B387" t="s" s="0">
+        <v>1167</v>
+      </c>
+      <c r="C387" t="s" s="0">
+        <v>1335</v>
+      </c>
+      <c r="D387" t="s" s="0">
+        <v>1336</v>
+      </c>
+      <c r="E387" t="s" s="0">
+        <v>379</v>
+      </c>
+      <c r="F387" t="s" s="0">
+        <v>1337</v>
+      </c>
+      <c r="G387" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="H387" t="s" s="0">
+        <v>498</v>
+      </c>
+      <c r="I387" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="J387" t="n" s="2">
+        <v>3.9</v>
+      </c>
+      <c r="K387" t="n" s="2">
+        <v>2.8</v>
+      </c>
+      <c r="L387" t="n" s="2">
+        <v>1.1</v>
+      </c>
+      <c r="M387" s="3">
+        <f>IFERROR(K387/J387,0)</f>
+      </c>
+      <c r="N387" t="s">
+        <v>711</v>
+      </c>
+      <c r="O387" t="s">
+        <v>86</v>
+      </c>
+      <c r="P387" t="s">
+        <v>1343</v>
+      </c>
+      <c r="Q387" t="s">
+        <v>1344</v>
+      </c>
+      <c r="R387" t="s">
+        <v>1345</v>
+      </c>
+      <c r="S387" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" t="s" s="0">
+        <v>1346</v>
+      </c>
+      <c r="B388" t="s" s="0">
+        <v>1167</v>
+      </c>
+      <c r="C388" t="s" s="0">
+        <v>1347</v>
+      </c>
+      <c r="D388" t="s" s="0">
+        <v>1348</v>
+      </c>
+      <c r="E388" t="s" s="0">
+        <v>251</v>
+      </c>
+      <c r="F388" t="s" s="0">
+        <v>1349</v>
+      </c>
+      <c r="G388" t="s" s="0">
+        <v>253</v>
+      </c>
+      <c r="H388" t="s" s="0">
+        <v>1350</v>
+      </c>
+      <c r="I388" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="J388" t="n" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="K388" t="n" s="2">
+        <v>1.8</v>
+      </c>
+      <c r="L388" t="n" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="M388" s="3">
+        <f>IFERROR(K388/J388,0)</f>
+      </c>
+      <c r="N388" t="s">
+        <v>1010</v>
+      </c>
+      <c r="O388" t="s">
+        <v>595</v>
+      </c>
+      <c r="P388" t="s">
+        <v>1351</v>
+      </c>
+      <c r="Q388" t="s">
+        <v>1352</v>
+      </c>
+      <c r="R388" t="s">
+        <v>1353</v>
+      </c>
+      <c r="S388" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" t="s" s="0">
+        <v>1346</v>
+      </c>
+      <c r="B389" t="s" s="0">
+        <v>1167</v>
+      </c>
+      <c r="C389" t="s" s="0">
+        <v>1347</v>
+      </c>
+      <c r="D389" t="s" s="0">
+        <v>1348</v>
+      </c>
+      <c r="E389" t="s" s="0">
+        <v>251</v>
+      </c>
+      <c r="F389" t="s" s="0">
+        <v>1349</v>
+      </c>
+      <c r="G389" t="s" s="0">
+        <v>253</v>
+      </c>
+      <c r="H389" t="s" s="0">
+        <v>1354</v>
+      </c>
+      <c r="I389" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="J389" t="n" s="2">
+        <v>2.15</v>
+      </c>
+      <c r="K389" t="n" s="2">
+        <v>1.8</v>
+      </c>
+      <c r="L389" t="n" s="2">
+        <v>0.35</v>
+      </c>
+      <c r="M389" s="3">
+        <f>IFERROR(K389/J389,0)</f>
+      </c>
+      <c r="N389" t="s">
+        <v>1010</v>
+      </c>
+      <c r="O389" t="s">
+        <v>595</v>
+      </c>
+      <c r="P389" t="s">
+        <v>1355</v>
+      </c>
+      <c r="Q389" t="s">
+        <v>1355</v>
+      </c>
+      <c r="R389" t="s">
+        <v>1356</v>
+      </c>
+      <c r="S389" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" t="s" s="0">
+        <v>1346</v>
+      </c>
+      <c r="B390" t="s" s="0">
+        <v>1167</v>
+      </c>
+      <c r="C390" t="s" s="0">
+        <v>1347</v>
+      </c>
+      <c r="D390" t="s" s="0">
+        <v>1348</v>
+      </c>
+      <c r="E390" t="s" s="0">
+        <v>251</v>
+      </c>
+      <c r="F390" t="s" s="0">
+        <v>1349</v>
+      </c>
+      <c r="G390" t="s" s="0">
+        <v>253</v>
+      </c>
+      <c r="H390" t="s" s="0">
+        <v>1357</v>
+      </c>
+      <c r="I390" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="J390" t="n" s="2">
+        <v>2.3</v>
+      </c>
+      <c r="K390" t="n" s="2">
+        <v>1.7</v>
+      </c>
+      <c r="L390" t="n" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="M390" s="3">
+        <f>IFERROR(K390/J390,0)</f>
+      </c>
+      <c r="N390" t="s">
+        <v>1010</v>
+      </c>
+      <c r="O390" t="s">
+        <v>595</v>
+      </c>
+      <c r="P390" t="s">
+        <v>1358</v>
+      </c>
+      <c r="Q390" t="s">
+        <v>1359</v>
+      </c>
+      <c r="R390" t="s">
+        <v>1360</v>
+      </c>
+      <c r="S390" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" t="s" s="0">
+        <v>1346</v>
+      </c>
+      <c r="B391" t="s" s="0">
+        <v>1167</v>
+      </c>
+      <c r="C391" t="s" s="0">
+        <v>1347</v>
+      </c>
+      <c r="D391" t="s" s="0">
+        <v>1348</v>
+      </c>
+      <c r="E391" t="s" s="0">
+        <v>251</v>
+      </c>
+      <c r="F391" t="s" s="0">
+        <v>1349</v>
+      </c>
+      <c r="G391" t="s" s="0">
+        <v>237</v>
+      </c>
+      <c r="H391" t="s" s="0">
+        <v>246</v>
+      </c>
+      <c r="I391" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="J391" t="n" s="2">
+        <v>2.55</v>
+      </c>
+      <c r="K391" t="n" s="2">
+        <v>1.9</v>
+      </c>
+      <c r="L391" t="n" s="2">
+        <v>0.65</v>
+      </c>
+      <c r="M391" s="3">
+        <f>IFERROR(K391/J391,0)</f>
+      </c>
+      <c r="N391" t="s">
+        <v>1010</v>
+      </c>
+      <c r="O391" t="s">
+        <v>595</v>
+      </c>
+      <c r="P391" t="s">
+        <v>1361</v>
+      </c>
+      <c r="Q391" t="s">
+        <v>1362</v>
+      </c>
+      <c r="R391" t="s">
+        <v>29</v>
+      </c>
+      <c r="S391" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" t="s" s="0">
+        <v>1346</v>
+      </c>
+      <c r="B392" t="s" s="0">
+        <v>1167</v>
+      </c>
+      <c r="C392" t="s" s="0">
+        <v>1347</v>
+      </c>
+      <c r="D392" t="s" s="0">
+        <v>1348</v>
+      </c>
+      <c r="E392" t="s" s="0">
+        <v>251</v>
+      </c>
+      <c r="F392" t="s" s="0">
+        <v>1349</v>
+      </c>
+      <c r="G392" t="s" s="0">
+        <v>237</v>
+      </c>
+      <c r="H392" t="s" s="0">
+        <v>535</v>
+      </c>
+      <c r="I392" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="J392" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="K392" t="s">
+        <v>29</v>
+      </c>
+      <c r="L392" t="s">
+        <v>29</v>
+      </c>
+      <c r="M392" s="3">
+        <f>IFERROR(K392/J392,0)</f>
+      </c>
+      <c r="N392" t="s">
+        <v>1010</v>
+      </c>
+      <c r="O392" t="s">
+        <v>595</v>
+      </c>
+      <c r="P392" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q392" t="s">
+        <v>29</v>
+      </c>
+      <c r="R392" t="s">
+        <v>29</v>
+      </c>
+      <c r="S392" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" t="s" s="0">
+        <v>1346</v>
+      </c>
+      <c r="B393" t="s" s="0">
+        <v>1167</v>
+      </c>
+      <c r="C393" t="s" s="0">
+        <v>1347</v>
+      </c>
+      <c r="D393" t="s" s="0">
+        <v>1348</v>
+      </c>
+      <c r="E393" t="s" s="0">
+        <v>251</v>
+      </c>
+      <c r="F393" t="s" s="0">
+        <v>1349</v>
+      </c>
+      <c r="G393" t="s" s="0">
+        <v>1070</v>
+      </c>
+      <c r="H393" t="s" s="0">
+        <v>394</v>
+      </c>
+      <c r="I393" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="J393" t="n" s="2">
+        <v>2.4</v>
+      </c>
+      <c r="K393" t="n" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="L393" t="n" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="M393" s="3">
+        <f>IFERROR(K393/J393,0)</f>
+      </c>
+      <c r="N393" t="s">
+        <v>1010</v>
+      </c>
+      <c r="O393" t="s">
+        <v>595</v>
+      </c>
+      <c r="P393" t="s">
+        <v>1363</v>
+      </c>
+      <c r="Q393" t="s">
+        <v>1364</v>
+      </c>
+      <c r="R393" t="s">
+        <v>1365</v>
+      </c>
+      <c r="S393" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" t="s" s="0">
+        <v>1346</v>
+      </c>
+      <c r="B394" t="s" s="0">
+        <v>1167</v>
+      </c>
+      <c r="C394" t="s" s="0">
+        <v>1347</v>
+      </c>
+      <c r="D394" t="s" s="0">
+        <v>1348</v>
+      </c>
+      <c r="E394" t="s" s="0">
+        <v>251</v>
+      </c>
+      <c r="F394" t="s" s="0">
+        <v>1349</v>
+      </c>
+      <c r="G394" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="H394" t="s" s="0">
+        <v>98</v>
+      </c>
+      <c r="I394" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="J394" t="n" s="2">
+        <v>2.65</v>
+      </c>
+      <c r="K394" t="n" s="2">
+        <v>2.2</v>
+      </c>
+      <c r="L394" t="n" s="2">
+        <v>0.45</v>
+      </c>
+      <c r="M394" s="3">
+        <f>IFERROR(K394/J394,0)</f>
+      </c>
+      <c r="N394" t="s">
+        <v>1010</v>
+      </c>
+      <c r="O394" t="s">
+        <v>595</v>
+      </c>
+      <c r="P394" t="s">
+        <v>1366</v>
+      </c>
+      <c r="Q394" t="s">
+        <v>1367</v>
+      </c>
+      <c r="R394" t="s">
+        <v>29</v>
+      </c>
+      <c r="S394" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" t="s" s="0">
+        <v>1346</v>
+      </c>
+      <c r="B395" t="s" s="0">
+        <v>1167</v>
+      </c>
+      <c r="C395" t="s" s="0">
+        <v>1347</v>
+      </c>
+      <c r="D395" t="s" s="0">
+        <v>1348</v>
+      </c>
+      <c r="E395" t="s" s="0">
+        <v>251</v>
+      </c>
+      <c r="F395" t="s" s="0">
+        <v>1349</v>
+      </c>
+      <c r="G395" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="H395" t="s" s="0">
+        <v>477</v>
+      </c>
+      <c r="I395" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="J395" t="n" s="2">
+        <v>3.5</v>
+      </c>
+      <c r="K395" t="n" s="2">
+        <v>2.7</v>
+      </c>
+      <c r="L395" t="n" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="M395" s="3">
+        <f>IFERROR(K395/J395,0)</f>
+      </c>
+      <c r="N395" t="s">
+        <v>1010</v>
+      </c>
+      <c r="O395" t="s">
+        <v>595</v>
+      </c>
+      <c r="P395" t="s">
+        <v>1368</v>
+      </c>
+      <c r="Q395" t="s">
+        <v>1369</v>
+      </c>
+      <c r="R395" t="s">
+        <v>1370</v>
+      </c>
+      <c r="S395" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" t="s" s="0">
+        <v>1371</v>
+      </c>
+      <c r="B396" t="s" s="0">
+        <v>1167</v>
+      </c>
+      <c r="C396" t="s" s="0">
+        <v>1372</v>
+      </c>
+      <c r="D396" t="s" s="0">
+        <v>1373</v>
+      </c>
+      <c r="E396" t="s" s="0">
+        <v>795</v>
+      </c>
+      <c r="F396" t="s" s="0">
+        <v>1374</v>
+      </c>
+      <c r="G396" t="s" s="0">
+        <v>313</v>
+      </c>
+      <c r="H396" t="s" s="0">
+        <v>816</v>
+      </c>
+      <c r="I396" t="s" s="0">
+        <v>968</v>
+      </c>
+      <c r="J396" t="n" s="2">
+        <v>0.7</v>
+      </c>
+      <c r="K396" t="s">
+        <v>29</v>
+      </c>
+      <c r="L396" t="s">
+        <v>29</v>
+      </c>
+      <c r="M396" s="3">
+        <f>IFERROR(K396/J396,0)</f>
+      </c>
+      <c r="N396" t="s">
+        <v>670</v>
+      </c>
+      <c r="O396" t="s">
+        <v>37</v>
+      </c>
+      <c r="P396" t="s">
+        <v>1375</v>
+      </c>
+      <c r="Q396" t="s">
+        <v>29</v>
+      </c>
+      <c r="R396" t="s">
+        <v>1376</v>
+      </c>
+      <c r="S396" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" t="s" s="0">
+        <v>1371</v>
+      </c>
+      <c r="B397" t="s" s="0">
+        <v>1167</v>
+      </c>
+      <c r="C397" t="s" s="0">
+        <v>1372</v>
+      </c>
+      <c r="D397" t="s" s="0">
+        <v>1373</v>
+      </c>
+      <c r="E397" t="s" s="0">
+        <v>795</v>
+      </c>
+      <c r="F397" t="s" s="0">
+        <v>1374</v>
+      </c>
+      <c r="G397" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="H397" t="s" s="0">
+        <v>746</v>
+      </c>
+      <c r="I397" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="J397" t="n" s="2">
+        <v>2.95</v>
+      </c>
+      <c r="K397" t="s">
+        <v>29</v>
+      </c>
+      <c r="L397" t="s">
+        <v>29</v>
+      </c>
+      <c r="M397" s="3">
+        <f>IFERROR(K397/J397,0)</f>
+      </c>
+      <c r="N397" t="s">
+        <v>670</v>
+      </c>
+      <c r="O397" t="s">
+        <v>37</v>
+      </c>
+      <c r="P397" t="s">
+        <v>1377</v>
+      </c>
+      <c r="Q397" t="s">
+        <v>29</v>
+      </c>
+      <c r="R397" t="s">
+        <v>1378</v>
+      </c>
+      <c r="S397" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398" t="s" s="0">
+        <v>1371</v>
+      </c>
+      <c r="B398" t="s" s="0">
+        <v>1167</v>
+      </c>
+      <c r="C398" t="s" s="0">
+        <v>1372</v>
+      </c>
+      <c r="D398" t="s" s="0">
+        <v>1373</v>
+      </c>
+      <c r="E398" t="s" s="0">
+        <v>795</v>
+      </c>
+      <c r="F398" t="s" s="0">
+        <v>1374</v>
+      </c>
+      <c r="G398" t="s" s="0">
+        <v>1379</v>
+      </c>
+      <c r="H398" t="s" s="0">
+        <v>125</v>
+      </c>
+      <c r="I398" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="J398" t="n" s="2">
+        <v>3.3</v>
+      </c>
+      <c r="K398" t="s">
+        <v>29</v>
+      </c>
+      <c r="L398" t="s">
+        <v>29</v>
+      </c>
+      <c r="M398" s="3">
+        <f>IFERROR(K398/J398,0)</f>
+      </c>
+      <c r="N398" t="s">
+        <v>670</v>
+      </c>
+      <c r="O398" t="s">
+        <v>37</v>
+      </c>
+      <c r="P398" t="s">
+        <v>1380</v>
+      </c>
+      <c r="Q398" t="s">
+        <v>29</v>
+      </c>
+      <c r="R398" t="s">
+        <v>1381</v>
+      </c>
+      <c r="S398" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" t="s" s="0">
+        <v>1371</v>
+      </c>
+      <c r="B399" t="s" s="0">
+        <v>1167</v>
+      </c>
+      <c r="C399" t="s" s="0">
+        <v>1372</v>
+      </c>
+      <c r="D399" t="s" s="0">
+        <v>1373</v>
+      </c>
+      <c r="E399" t="s" s="0">
+        <v>795</v>
+      </c>
+      <c r="F399" t="s" s="0">
+        <v>1374</v>
+      </c>
+      <c r="G399" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="H399" t="s" s="0">
+        <v>959</v>
+      </c>
+      <c r="I399" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="J399" t="n" s="2">
+        <v>3.5</v>
+      </c>
+      <c r="K399" t="n" s="2">
+        <v>2.5</v>
+      </c>
+      <c r="L399" t="n" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="M399" s="3">
+        <f>IFERROR(K399/J399,0)</f>
+      </c>
+      <c r="N399" t="s">
+        <v>670</v>
+      </c>
+      <c r="O399" t="s">
+        <v>37</v>
+      </c>
+      <c r="P399" t="s">
+        <v>1332</v>
+      </c>
+      <c r="Q399" t="s">
+        <v>1382</v>
+      </c>
+      <c r="R399" t="s">
+        <v>1383</v>
+      </c>
+      <c r="S399" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400" t="s" s="0">
+        <v>1371</v>
+      </c>
+      <c r="B400" t="s" s="0">
+        <v>1167</v>
+      </c>
+      <c r="C400" t="s" s="0">
+        <v>1372</v>
+      </c>
+      <c r="D400" t="s" s="0">
+        <v>1373</v>
+      </c>
+      <c r="E400" t="s" s="0">
+        <v>795</v>
+      </c>
+      <c r="F400" t="s" s="0">
+        <v>1374</v>
+      </c>
+      <c r="G400" t="s" s="0">
+        <v>260</v>
+      </c>
+      <c r="H400" t="s" s="0">
+        <v>480</v>
+      </c>
+      <c r="I400" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="J400" t="n" s="2">
+        <v>3.3</v>
+      </c>
+      <c r="K400" t="s">
+        <v>29</v>
+      </c>
+      <c r="L400" t="s">
+        <v>29</v>
+      </c>
+      <c r="M400" s="3">
+        <f>IFERROR(K400/J400,0)</f>
+      </c>
+      <c r="N400" t="s">
+        <v>670</v>
+      </c>
+      <c r="O400" t="s">
+        <v>37</v>
+      </c>
+      <c r="P400" t="s">
+        <v>1384</v>
+      </c>
+      <c r="Q400" t="s">
+        <v>29</v>
+      </c>
+      <c r="R400" t="s">
+        <v>29</v>
+      </c>
+      <c r="S400" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401" t="s" s="0">
+        <v>1371</v>
+      </c>
+      <c r="B401" t="s" s="0">
+        <v>1167</v>
+      </c>
+      <c r="C401" t="s" s="0">
+        <v>1372</v>
+      </c>
+      <c r="D401" t="s" s="0">
+        <v>1373</v>
+      </c>
+      <c r="E401" t="s" s="0">
+        <v>795</v>
+      </c>
+      <c r="F401" t="s" s="0">
+        <v>1374</v>
+      </c>
+      <c r="G401" t="s" s="0">
+        <v>777</v>
+      </c>
+      <c r="H401" t="s" s="0">
+        <v>1385</v>
+      </c>
+      <c r="I401" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="J401" t="n" s="2">
+        <v>4.2</v>
+      </c>
+      <c r="K401" t="s">
+        <v>29</v>
+      </c>
+      <c r="L401" t="s">
+        <v>29</v>
+      </c>
+      <c r="M401" s="3">
+        <f>IFERROR(K401/J401,0)</f>
+      </c>
+      <c r="N401" t="s">
+        <v>670</v>
+      </c>
+      <c r="O401" t="s">
+        <v>37</v>
+      </c>
+      <c r="P401" t="s">
+        <v>909</v>
+      </c>
+      <c r="Q401" t="s">
+        <v>29</v>
+      </c>
+      <c r="R401" t="s">
+        <v>1386</v>
+      </c>
+      <c r="S401" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="402">
+      <c r="A402" t="s" s="0">
+        <v>1387</v>
+      </c>
+      <c r="B402" t="s" s="0">
+        <v>1167</v>
+      </c>
+      <c r="C402" t="s" s="0">
+        <v>1388</v>
+      </c>
+      <c r="D402" t="s" s="0">
+        <v>1389</v>
+      </c>
+      <c r="E402" t="s" s="0">
+        <v>401</v>
+      </c>
+      <c r="F402" t="s" s="0">
+        <v>1390</v>
+      </c>
+      <c r="G402" t="s" s="0">
+        <v>280</v>
+      </c>
+      <c r="H402" t="s" s="0">
+        <v>470</v>
+      </c>
+      <c r="I402" t="s" s="0">
+        <v>65</v>
+      </c>
+      <c r="J402" t="n" s="2">
+        <v>1.8</v>
+      </c>
+      <c r="K402" t="s">
+        <v>29</v>
+      </c>
+      <c r="L402" t="s">
+        <v>29</v>
+      </c>
+      <c r="M402" s="3">
+        <f>IFERROR(K402/J402,0)</f>
+      </c>
+      <c r="N402" t="s">
+        <v>67</v>
+      </c>
+      <c r="O402" t="s">
+        <v>28</v>
+      </c>
+      <c r="P402" t="s">
+        <v>1391</v>
+      </c>
+      <c r="Q402" t="s">
+        <v>29</v>
+      </c>
+      <c r="R402" t="s">
+        <v>1392</v>
+      </c>
+      <c r="S402" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="403">
+      <c r="A403" t="s" s="0">
+        <v>1387</v>
+      </c>
+      <c r="B403" t="s" s="0">
+        <v>1167</v>
+      </c>
+      <c r="C403" t="s" s="0">
+        <v>1388</v>
+      </c>
+      <c r="D403" t="s" s="0">
+        <v>1389</v>
+      </c>
+      <c r="E403" t="s" s="0">
+        <v>401</v>
+      </c>
+      <c r="F403" t="s" s="0">
+        <v>1390</v>
+      </c>
+      <c r="G403" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="H403" t="s" s="0">
+        <v>1393</v>
+      </c>
+      <c r="I403" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="J403" t="n" s="2">
+        <v>1.75</v>
+      </c>
+      <c r="K403" t="s">
+        <v>29</v>
+      </c>
+      <c r="L403" t="s">
+        <v>29</v>
+      </c>
+      <c r="M403" s="3">
+        <f>IFERROR(K403/J403,0)</f>
+      </c>
+      <c r="N403" t="s">
+        <v>67</v>
+      </c>
+      <c r="O403" t="s">
+        <v>28</v>
+      </c>
+      <c r="P403" t="s">
+        <v>1394</v>
+      </c>
+      <c r="Q403" t="s">
+        <v>29</v>
+      </c>
+      <c r="R403" t="s">
+        <v>1395</v>
+      </c>
+      <c r="S403" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="404">
+      <c r="A404" t="s" s="0">
+        <v>1387</v>
+      </c>
+      <c r="B404" t="s" s="0">
+        <v>1167</v>
+      </c>
+      <c r="C404" t="s" s="0">
+        <v>1388</v>
+      </c>
+      <c r="D404" t="s" s="0">
+        <v>1389</v>
+      </c>
+      <c r="E404" t="s" s="0">
+        <v>401</v>
+      </c>
+      <c r="F404" t="s" s="0">
+        <v>1390</v>
+      </c>
+      <c r="G404" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="H404" t="s" s="0">
+        <v>427</v>
+      </c>
+      <c r="I404" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="J404" t="n" s="2">
+        <v>2.1</v>
+      </c>
+      <c r="K404" t="s">
+        <v>29</v>
+      </c>
+      <c r="L404" t="s">
+        <v>29</v>
+      </c>
+      <c r="M404" s="3">
+        <f>IFERROR(K404/J404,0)</f>
+      </c>
+      <c r="N404" t="s">
+        <v>67</v>
+      </c>
+      <c r="O404" t="s">
+        <v>28</v>
+      </c>
+      <c r="P404" t="s">
+        <v>1396</v>
+      </c>
+      <c r="Q404" t="s">
+        <v>29</v>
+      </c>
+      <c r="R404" t="s">
+        <v>29</v>
+      </c>
+      <c r="S404" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="405">
+      <c r="A405" t="s" s="0">
+        <v>1387</v>
+      </c>
+      <c r="B405" t="s" s="0">
+        <v>1167</v>
+      </c>
+      <c r="C405" t="s" s="0">
+        <v>1388</v>
+      </c>
+      <c r="D405" t="s" s="0">
+        <v>1389</v>
+      </c>
+      <c r="E405" t="s" s="0">
+        <v>401</v>
+      </c>
+      <c r="F405" t="s" s="0">
+        <v>1390</v>
+      </c>
+      <c r="G405" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="H405" t="s" s="0">
+        <v>428</v>
+      </c>
+      <c r="I405" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="J405" t="n" s="2">
+        <v>3.2</v>
+      </c>
+      <c r="K405" t="s">
+        <v>29</v>
+      </c>
+      <c r="L405" t="s">
+        <v>29</v>
+      </c>
+      <c r="M405" s="3">
+        <f>IFERROR(K405/J405,0)</f>
+      </c>
+      <c r="N405" t="s">
+        <v>67</v>
+      </c>
+      <c r="O405" t="s">
+        <v>28</v>
+      </c>
+      <c r="P405" t="s">
+        <v>1397</v>
+      </c>
+      <c r="Q405" t="s">
+        <v>29</v>
+      </c>
+      <c r="R405" t="s">
+        <v>29</v>
+      </c>
+      <c r="S405" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="406">
+      <c r="A406" t="s" s="0">
+        <v>1398</v>
+      </c>
+      <c r="B406" t="s" s="0">
+        <v>1167</v>
+      </c>
+      <c r="C406" t="s" s="0">
+        <v>1399</v>
+      </c>
+      <c r="D406" t="s" s="0">
+        <v>1400</v>
+      </c>
+      <c r="E406" t="s" s="0">
+        <v>379</v>
+      </c>
+      <c r="F406" t="s" s="0">
+        <v>1401</v>
+      </c>
+      <c r="G406" t="s" s="0">
+        <v>280</v>
+      </c>
+      <c r="H406" t="s" s="0">
+        <v>181</v>
+      </c>
+      <c r="I406" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="J406" t="n" s="2">
+        <v>3.55</v>
+      </c>
+      <c r="K406" t="s">
+        <v>29</v>
+      </c>
+      <c r="L406" t="s">
+        <v>29</v>
+      </c>
+      <c r="M406" s="3">
+        <f>IFERROR(K406/J406,0)</f>
+      </c>
+      <c r="N406" t="s">
+        <v>182</v>
+      </c>
+      <c r="O406" t="s">
+        <v>1402</v>
+      </c>
+      <c r="P406" t="s">
+        <v>1403</v>
+      </c>
+      <c r="Q406" t="s">
+        <v>29</v>
+      </c>
+      <c r="R406" t="s">
+        <v>1404</v>
+      </c>
+      <c r="S406" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="407">
+      <c r="A407" t="s" s="0">
+        <v>1398</v>
+      </c>
+      <c r="B407" t="s" s="0">
+        <v>1167</v>
+      </c>
+      <c r="C407" t="s" s="0">
+        <v>1399</v>
+      </c>
+      <c r="D407" t="s" s="0">
+        <v>1400</v>
+      </c>
+      <c r="E407" t="s" s="0">
+        <v>379</v>
+      </c>
+      <c r="F407" t="s" s="0">
+        <v>1401</v>
+      </c>
+      <c r="G407" t="s" s="0">
+        <v>280</v>
+      </c>
+      <c r="H407" t="s" s="0">
+        <v>185</v>
+      </c>
+      <c r="I407" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="J407" t="n" s="2">
+        <v>2.9</v>
+      </c>
+      <c r="K407" t="n" s="2">
+        <v>2.2</v>
+      </c>
+      <c r="L407" t="n" s="2">
+        <v>0.7</v>
+      </c>
+      <c r="M407" s="3">
+        <f>IFERROR(K407/J407,0)</f>
+      </c>
+      <c r="N407" t="s">
+        <v>182</v>
+      </c>
+      <c r="O407" t="s">
+        <v>1402</v>
+      </c>
+      <c r="P407" t="s">
+        <v>1405</v>
+      </c>
+      <c r="Q407" t="s">
+        <v>578</v>
+      </c>
+      <c r="R407" t="s">
+        <v>1406</v>
+      </c>
+      <c r="S407" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="408">
+      <c r="A408" t="s" s="0">
+        <v>1398</v>
+      </c>
+      <c r="B408" t="s" s="0">
+        <v>1167</v>
+      </c>
+      <c r="C408" t="s" s="0">
+        <v>1399</v>
+      </c>
+      <c r="D408" t="s" s="0">
+        <v>1400</v>
+      </c>
+      <c r="E408" t="s" s="0">
+        <v>379</v>
+      </c>
+      <c r="F408" t="s" s="0">
+        <v>1401</v>
+      </c>
+      <c r="G408" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="H408" t="s" s="0">
+        <v>157</v>
+      </c>
+      <c r="I408" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="J408" t="n" s="2">
+        <v>3.5</v>
+      </c>
+      <c r="K408" t="n" s="2">
+        <v>2.5</v>
+      </c>
+      <c r="L408" t="n" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="M408" s="3">
+        <f>IFERROR(K408/J408,0)</f>
+      </c>
+      <c r="N408" t="s">
+        <v>182</v>
+      </c>
+      <c r="O408" t="s">
+        <v>1402</v>
+      </c>
+      <c r="P408" t="s">
+        <v>1407</v>
+      </c>
+      <c r="Q408" t="s">
+        <v>579</v>
+      </c>
+      <c r="R408" t="s">
+        <v>1408</v>
+      </c>
+      <c r="S408" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="409">
+      <c r="A409" t="s" s="0">
+        <v>1398</v>
+      </c>
+      <c r="B409" t="s" s="0">
+        <v>1167</v>
+      </c>
+      <c r="C409" t="s" s="0">
+        <v>1399</v>
+      </c>
+      <c r="D409" t="s" s="0">
+        <v>1400</v>
+      </c>
+      <c r="E409" t="s" s="0">
+        <v>379</v>
+      </c>
+      <c r="F409" t="s" s="0">
+        <v>1401</v>
+      </c>
+      <c r="G409" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="H409" t="s" s="0">
+        <v>222</v>
+      </c>
+      <c r="I409" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="J409" t="n" s="2">
+        <v>3.4</v>
+      </c>
+      <c r="K409" t="n" s="2">
+        <v>2.4</v>
+      </c>
+      <c r="L409" t="n" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="M409" s="3">
+        <f>IFERROR(K409/J409,0)</f>
+      </c>
+      <c r="N409" t="s">
+        <v>182</v>
+      </c>
+      <c r="O409" t="s">
+        <v>1402</v>
+      </c>
+      <c r="P409" t="s">
+        <v>1409</v>
+      </c>
+      <c r="Q409" t="s">
+        <v>1410</v>
+      </c>
+      <c r="R409" t="s">
+        <v>1411</v>
+      </c>
+      <c r="S409" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="410">
+      <c r="A410" t="s" s="0">
+        <v>1398</v>
+      </c>
+      <c r="B410" t="s" s="0">
+        <v>1167</v>
+      </c>
+      <c r="C410" t="s" s="0">
+        <v>1399</v>
+      </c>
+      <c r="D410" t="s" s="0">
+        <v>1400</v>
+      </c>
+      <c r="E410" t="s" s="0">
+        <v>379</v>
+      </c>
+      <c r="F410" t="s" s="0">
+        <v>1401</v>
+      </c>
+      <c r="G410" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="H410" t="s" s="0">
+        <v>161</v>
+      </c>
+      <c r="I410" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="J410" t="n" s="2">
+        <v>3.5</v>
+      </c>
+      <c r="K410" t="n" s="2">
+        <v>2.5</v>
+      </c>
+      <c r="L410" t="n" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="M410" s="3">
+        <f>IFERROR(K410/J410,0)</f>
+      </c>
+      <c r="N410" t="s">
+        <v>182</v>
+      </c>
+      <c r="O410" t="s">
+        <v>1402</v>
+      </c>
+      <c r="P410" t="s">
+        <v>1412</v>
+      </c>
+      <c r="Q410" t="s">
+        <v>1412</v>
+      </c>
+      <c r="R410" t="s">
+        <v>1413</v>
+      </c>
+      <c r="S410" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="411">
+      <c r="A411" t="s" s="0">
+        <v>1398</v>
+      </c>
+      <c r="B411" t="s" s="0">
+        <v>1167</v>
+      </c>
+      <c r="C411" t="s" s="0">
+        <v>1399</v>
+      </c>
+      <c r="D411" t="s" s="0">
+        <v>1400</v>
+      </c>
+      <c r="E411" t="s" s="0">
+        <v>379</v>
+      </c>
+      <c r="F411" t="s" s="0">
+        <v>1401</v>
+      </c>
+      <c r="G411" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="H411" t="s" s="0">
+        <v>959</v>
+      </c>
+      <c r="I411" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="J411" t="n" s="2">
+        <v>4.0</v>
+      </c>
+      <c r="K411" t="n" s="2">
+        <v>3.0</v>
+      </c>
+      <c r="L411" t="n" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="M411" s="3">
+        <f>IFERROR(K411/J411,0)</f>
+      </c>
+      <c r="N411" t="s">
+        <v>182</v>
+      </c>
+      <c r="O411" t="s">
+        <v>1402</v>
+      </c>
+      <c r="P411" t="s">
+        <v>1414</v>
+      </c>
+      <c r="Q411" t="s">
+        <v>1415</v>
+      </c>
+      <c r="R411" t="s">
+        <v>1416</v>
+      </c>
+      <c r="S411" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="412">
+      <c r="A412" t="s" s="0">
+        <v>1398</v>
+      </c>
+      <c r="B412" t="s" s="0">
+        <v>1167</v>
+      </c>
+      <c r="C412" t="s" s="0">
+        <v>1399</v>
+      </c>
+      <c r="D412" t="s" s="0">
+        <v>1400</v>
+      </c>
+      <c r="E412" t="s" s="0">
+        <v>379</v>
+      </c>
+      <c r="F412" t="s" s="0">
+        <v>1401</v>
+      </c>
+      <c r="G412" t="s" s="0">
+        <v>780</v>
+      </c>
+      <c r="H412" t="s" s="0">
+        <v>1417</v>
+      </c>
+      <c r="I412" t="s" s="0">
+        <v>54</v>
+      </c>
+      <c r="J412" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="K412" t="s">
+        <v>29</v>
+      </c>
+      <c r="L412" t="s">
+        <v>29</v>
+      </c>
+      <c r="M412" s="3">
+        <f>IFERROR(K412/J412,0)</f>
+      </c>
+      <c r="N412" t="s">
+        <v>182</v>
+      </c>
+      <c r="O412" t="s">
+        <v>1402</v>
+      </c>
+      <c r="P412" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q412" t="s">
+        <v>29</v>
+      </c>
+      <c r="R412" t="s">
+        <v>29</v>
+      </c>
+      <c r="S412" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="413">
+      <c r="A413" t="s" s="0">
+        <v>1398</v>
+      </c>
+      <c r="B413" t="s" s="0">
+        <v>1167</v>
+      </c>
+      <c r="C413" t="s" s="0">
+        <v>1399</v>
+      </c>
+      <c r="D413" t="s" s="0">
+        <v>1400</v>
+      </c>
+      <c r="E413" t="s" s="0">
+        <v>379</v>
+      </c>
+      <c r="F413" t="s" s="0">
+        <v>1401</v>
+      </c>
+      <c r="G413" t="s" s="0">
+        <v>780</v>
+      </c>
+      <c r="H413" t="s" s="0">
+        <v>1418</v>
+      </c>
+      <c r="I413" t="s" s="0">
+        <v>54</v>
+      </c>
+      <c r="J413" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="K413" t="s">
+        <v>29</v>
+      </c>
+      <c r="L413" t="s">
+        <v>29</v>
+      </c>
+      <c r="M413" s="3">
+        <f>IFERROR(K413/J413,0)</f>
+      </c>
+      <c r="N413" t="s">
+        <v>182</v>
+      </c>
+      <c r="O413" t="s">
+        <v>1402</v>
+      </c>
+      <c r="P413" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q413" t="s">
+        <v>29</v>
+      </c>
+      <c r="R413" t="s">
+        <v>29</v>
+      </c>
+      <c r="S413" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="414">
+      <c r="A414" t="s" s="0">
+        <v>1419</v>
+      </c>
+      <c r="B414" t="s" s="0">
+        <v>1167</v>
+      </c>
+      <c r="C414" t="s" s="0">
+        <v>1420</v>
+      </c>
+      <c r="D414" t="s" s="0">
+        <v>1421</v>
+      </c>
+      <c r="E414" t="s" s="0">
+        <v>234</v>
+      </c>
+      <c r="F414" t="s" s="0">
+        <v>1422</v>
+      </c>
+      <c r="G414" t="s" s="0">
+        <v>527</v>
+      </c>
+      <c r="H414" t="s" s="0">
+        <v>1215</v>
+      </c>
+      <c r="I414" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="J414" t="n" s="2">
+        <v>2.4</v>
+      </c>
+      <c r="K414" t="n" s="2">
+        <v>2.1</v>
+      </c>
+      <c r="L414" t="n" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="M414" s="3">
+        <f>IFERROR(K414/J414,0)</f>
+      </c>
+      <c r="N414" t="s">
+        <v>1423</v>
+      </c>
+      <c r="O414" t="s">
+        <v>560</v>
+      </c>
+      <c r="P414" t="s">
+        <v>1424</v>
+      </c>
+      <c r="Q414" t="s">
+        <v>1425</v>
+      </c>
+      <c r="R414" t="s">
+        <v>1426</v>
+      </c>
+      <c r="S414" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="415">
+      <c r="A415" t="s" s="0">
+        <v>1419</v>
+      </c>
+      <c r="B415" t="s" s="0">
+        <v>1167</v>
+      </c>
+      <c r="C415" t="s" s="0">
+        <v>1420</v>
+      </c>
+      <c r="D415" t="s" s="0">
+        <v>1421</v>
+      </c>
+      <c r="E415" t="s" s="0">
+        <v>234</v>
+      </c>
+      <c r="F415" t="s" s="0">
+        <v>1422</v>
+      </c>
+      <c r="G415" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="H415" t="s" s="0">
+        <v>347</v>
+      </c>
+      <c r="I415" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="J415" t="n" s="2">
+        <v>2.7</v>
+      </c>
+      <c r="K415" t="n" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="L415" t="n" s="2">
+        <v>0.7</v>
+      </c>
+      <c r="M415" s="3">
+        <f>IFERROR(K415/J415,0)</f>
+      </c>
+      <c r="N415" t="s">
+        <v>1423</v>
+      </c>
+      <c r="O415" t="s">
+        <v>560</v>
+      </c>
+      <c r="P415" t="s">
+        <v>1427</v>
+      </c>
+      <c r="Q415" t="s">
+        <v>1428</v>
+      </c>
+      <c r="R415" t="s">
+        <v>1429</v>
+      </c>
+      <c r="S415" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="416">
+      <c r="A416" t="s" s="0">
+        <v>1419</v>
+      </c>
+      <c r="B416" t="s" s="0">
+        <v>1167</v>
+      </c>
+      <c r="C416" t="s" s="0">
+        <v>1420</v>
+      </c>
+      <c r="D416" t="s" s="0">
+        <v>1421</v>
+      </c>
+      <c r="E416" t="s" s="0">
+        <v>234</v>
+      </c>
+      <c r="F416" t="s" s="0">
+        <v>1422</v>
+      </c>
+      <c r="G416" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="H416" t="s" s="0">
+        <v>157</v>
+      </c>
+      <c r="I416" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="J416" t="n" s="2">
+        <v>2.7</v>
+      </c>
+      <c r="K416" t="n" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="L416" t="n" s="2">
+        <v>0.7</v>
+      </c>
+      <c r="M416" s="3">
+        <f>IFERROR(K416/J416,0)</f>
+      </c>
+      <c r="N416" t="s">
+        <v>1423</v>
+      </c>
+      <c r="O416" t="s">
+        <v>560</v>
+      </c>
+      <c r="P416" t="s">
+        <v>1430</v>
+      </c>
+      <c r="Q416" t="s">
+        <v>1431</v>
+      </c>
+      <c r="R416" t="s">
+        <v>1432</v>
+      </c>
+      <c r="S416" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="417">
+      <c r="A417" t="s" s="0">
+        <v>1433</v>
+      </c>
+      <c r="B417" t="s" s="0">
+        <v>1167</v>
+      </c>
+      <c r="C417" t="s" s="0">
+        <v>1399</v>
+      </c>
+      <c r="D417" t="s" s="0">
+        <v>1434</v>
+      </c>
+      <c r="E417" t="s" s="0">
+        <v>216</v>
+      </c>
+      <c r="F417" t="s" s="0">
+        <v>1435</v>
+      </c>
+      <c r="G417" t="s" s="0">
+        <v>1385</v>
+      </c>
+      <c r="H417" t="s" s="0">
+        <v>972</v>
+      </c>
+      <c r="I417" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="J417" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="K417" t="s">
+        <v>29</v>
+      </c>
+      <c r="L417" t="s">
+        <v>29</v>
+      </c>
+      <c r="M417" s="3">
+        <f>IFERROR(K417/J417,0)</f>
+      </c>
+      <c r="N417" t="s">
+        <v>1436</v>
+      </c>
+      <c r="O417" t="s">
+        <v>711</v>
+      </c>
+      <c r="P417" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q417" t="s">
+        <v>29</v>
+      </c>
+      <c r="R417" t="s">
+        <v>29</v>
+      </c>
+      <c r="S417" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="418">
+      <c r="A418" t="s" s="0">
+        <v>1433</v>
+      </c>
+      <c r="B418" t="s" s="0">
+        <v>1167</v>
+      </c>
+      <c r="C418" t="s" s="0">
+        <v>1399</v>
+      </c>
+      <c r="D418" t="s" s="0">
+        <v>1434</v>
+      </c>
+      <c r="E418" t="s" s="0">
+        <v>216</v>
+      </c>
+      <c r="F418" t="s" s="0">
+        <v>1435</v>
+      </c>
+      <c r="G418" t="s" s="0">
+        <v>1437</v>
+      </c>
+      <c r="H418" t="s" s="0">
+        <v>1438</v>
+      </c>
+      <c r="I418" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="J418" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="K418" t="s">
+        <v>29</v>
+      </c>
+      <c r="L418" t="s">
+        <v>29</v>
+      </c>
+      <c r="M418" s="3">
+        <f>IFERROR(K418/J418,0)</f>
+      </c>
+      <c r="N418" t="s">
+        <v>1436</v>
+      </c>
+      <c r="O418" t="s">
+        <v>711</v>
+      </c>
+      <c r="P418" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q418" t="s">
+        <v>29</v>
+      </c>
+      <c r="R418" t="s">
+        <v>29</v>
+      </c>
+      <c r="S418" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="419">
+      <c r="A419" t="s" s="0">
+        <v>1433</v>
+      </c>
+      <c r="B419" t="s" s="0">
+        <v>1167</v>
+      </c>
+      <c r="C419" t="s" s="0">
+        <v>1399</v>
+      </c>
+      <c r="D419" t="s" s="0">
+        <v>1434</v>
+      </c>
+      <c r="E419" t="s" s="0">
+        <v>216</v>
+      </c>
+      <c r="F419" t="s" s="0">
+        <v>1435</v>
+      </c>
+      <c r="G419" t="s" s="0">
+        <v>1439</v>
+      </c>
+      <c r="H419" t="s" s="0">
+        <v>1440</v>
+      </c>
+      <c r="I419" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="J419" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="K419" t="s">
+        <v>29</v>
+      </c>
+      <c r="L419" t="s">
+        <v>29</v>
+      </c>
+      <c r="M419" s="3">
+        <f>IFERROR(K419/J419,0)</f>
+      </c>
+      <c r="N419" t="s">
+        <v>1436</v>
+      </c>
+      <c r="O419" t="s">
+        <v>711</v>
+      </c>
+      <c r="P419" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q419" t="s">
+        <v>29</v>
+      </c>
+      <c r="R419" t="s">
+        <v>29</v>
+      </c>
+      <c r="S419" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="420">
+      <c r="A420" t="s" s="0">
+        <v>1433</v>
+      </c>
+      <c r="B420" t="s" s="0">
+        <v>1167</v>
+      </c>
+      <c r="C420" t="s" s="0">
+        <v>1399</v>
+      </c>
+      <c r="D420" t="s" s="0">
+        <v>1434</v>
+      </c>
+      <c r="E420" t="s" s="0">
+        <v>216</v>
+      </c>
+      <c r="F420" t="s" s="0">
+        <v>1435</v>
+      </c>
+      <c r="G420" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="H420" t="s" s="0">
+        <v>369</v>
+      </c>
+      <c r="I420" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="J420" t="n" s="2">
+        <v>3.1</v>
+      </c>
+      <c r="K420" t="n" s="2">
+        <v>2.6</v>
+      </c>
+      <c r="L420" t="n" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="M420" s="3">
+        <f>IFERROR(K420/J420,0)</f>
+      </c>
+      <c r="N420" t="s">
+        <v>1436</v>
+      </c>
+      <c r="O420" t="s">
+        <v>711</v>
+      </c>
+      <c r="P420" t="s">
+        <v>1441</v>
+      </c>
+      <c r="Q420" t="s">
+        <v>1442</v>
+      </c>
+      <c r="R420" t="s">
+        <v>1443</v>
+      </c>
+      <c r="S420" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="421">
+      <c r="A421" t="s" s="0">
+        <v>1433</v>
+      </c>
+      <c r="B421" t="s" s="0">
+        <v>1167</v>
+      </c>
+      <c r="C421" t="s" s="0">
+        <v>1399</v>
+      </c>
+      <c r="D421" t="s" s="0">
+        <v>1434</v>
+      </c>
+      <c r="E421" t="s" s="0">
+        <v>216</v>
+      </c>
+      <c r="F421" t="s" s="0">
+        <v>1435</v>
+      </c>
+      <c r="G421" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="H421" t="s" s="0">
+        <v>1444</v>
+      </c>
+      <c r="I421" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="J421" t="n" s="2">
+        <v>2.8</v>
+      </c>
+      <c r="K421" t="n" s="2">
+        <v>2.2</v>
+      </c>
+      <c r="L421" t="n" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="M421" s="3">
+        <f>IFERROR(K421/J421,0)</f>
+      </c>
+      <c r="N421" t="s">
+        <v>1436</v>
+      </c>
+      <c r="O421" t="s">
+        <v>711</v>
+      </c>
+      <c r="P421" t="s">
+        <v>1445</v>
+      </c>
+      <c r="Q421" t="s">
+        <v>1445</v>
+      </c>
+      <c r="R421" t="s">
+        <v>1446</v>
+      </c>
+      <c r="S421" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="422">
+      <c r="A422" t="s" s="0">
+        <v>1433</v>
+      </c>
+      <c r="B422" t="s" s="0">
+        <v>1167</v>
+      </c>
+      <c r="C422" t="s" s="0">
+        <v>1399</v>
+      </c>
+      <c r="D422" t="s" s="0">
+        <v>1434</v>
+      </c>
+      <c r="E422" t="s" s="0">
+        <v>216</v>
+      </c>
+      <c r="F422" t="s" s="0">
+        <v>1435</v>
+      </c>
+      <c r="G422" t="s" s="0">
+        <v>246</v>
+      </c>
+      <c r="H422" t="s" s="0">
+        <v>959</v>
+      </c>
+      <c r="I422" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="J422" t="n" s="2">
+        <v>3.6</v>
+      </c>
+      <c r="K422" t="n" s="2">
+        <v>2.7</v>
+      </c>
+      <c r="L422" t="n" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="M422" s="3">
+        <f>IFERROR(K422/J422,0)</f>
+      </c>
+      <c r="N422" t="s">
+        <v>1436</v>
+      </c>
+      <c r="O422" t="s">
+        <v>711</v>
+      </c>
+      <c r="P422" t="s">
+        <v>1447</v>
+      </c>
+      <c r="Q422" t="s">
+        <v>1448</v>
+      </c>
+      <c r="R422" t="s">
+        <v>1449</v>
+      </c>
+      <c r="S422" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="423">
+      <c r="A423" t="s" s="0">
+        <v>1433</v>
+      </c>
+      <c r="B423" t="s" s="0">
+        <v>1167</v>
+      </c>
+      <c r="C423" t="s" s="0">
+        <v>1399</v>
+      </c>
+      <c r="D423" t="s" s="0">
+        <v>1434</v>
+      </c>
+      <c r="E423" t="s" s="0">
+        <v>216</v>
+      </c>
+      <c r="F423" t="s" s="0">
+        <v>1435</v>
+      </c>
+      <c r="G423" t="s" s="0">
+        <v>516</v>
+      </c>
+      <c r="H423" t="s" s="0">
+        <v>680</v>
+      </c>
+      <c r="I423" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="J423" t="n" s="2">
+        <v>3.3</v>
+      </c>
+      <c r="K423" t="n" s="2">
+        <v>2.7</v>
+      </c>
+      <c r="L423" t="n" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="M423" s="3">
+        <f>IFERROR(K423/J423,0)</f>
+      </c>
+      <c r="N423" t="s">
+        <v>1436</v>
+      </c>
+      <c r="O423" t="s">
+        <v>711</v>
+      </c>
+      <c r="P423" t="s">
+        <v>1450</v>
+      </c>
+      <c r="Q423" t="s">
+        <v>1451</v>
+      </c>
+      <c r="R423" t="s">
+        <v>1452</v>
+      </c>
+      <c r="S423" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="424">
+      <c r="A424" t="s" s="0">
+        <v>1433</v>
+      </c>
+      <c r="B424" t="s" s="0">
+        <v>1167</v>
+      </c>
+      <c r="C424" t="s" s="0">
+        <v>1399</v>
+      </c>
+      <c r="D424" t="s" s="0">
+        <v>1434</v>
+      </c>
+      <c r="E424" t="s" s="0">
+        <v>216</v>
+      </c>
+      <c r="F424" t="s" s="0">
+        <v>1435</v>
+      </c>
+      <c r="G424" t="s" s="0">
+        <v>690</v>
+      </c>
+      <c r="H424" t="s" s="0">
+        <v>1453</v>
+      </c>
+      <c r="I424" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="J424" t="n" s="2">
+        <v>3.95</v>
+      </c>
+      <c r="K424" t="n" s="2">
+        <v>3.2</v>
+      </c>
+      <c r="L424" t="n" s="2">
+        <v>0.75</v>
+      </c>
+      <c r="M424" s="3">
+        <f>IFERROR(K424/J424,0)</f>
+      </c>
+      <c r="N424" t="s">
+        <v>1436</v>
+      </c>
+      <c r="O424" t="s">
+        <v>711</v>
+      </c>
+      <c r="P424" t="s">
+        <v>1454</v>
+      </c>
+      <c r="Q424" t="s">
+        <v>1455</v>
+      </c>
+      <c r="R424" t="s">
+        <v>1456</v>
+      </c>
+      <c r="S424" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="425">
+      <c r="A425" t="s" s="0">
+        <v>1433</v>
+      </c>
+      <c r="B425" t="s" s="0">
+        <v>1167</v>
+      </c>
+      <c r="C425" t="s" s="0">
+        <v>1399</v>
+      </c>
+      <c r="D425" t="s" s="0">
+        <v>1434</v>
+      </c>
+      <c r="E425" t="s" s="0">
+        <v>216</v>
+      </c>
+      <c r="F425" t="s" s="0">
+        <v>1435</v>
+      </c>
+      <c r="G425" t="s" s="0">
+        <v>1086</v>
+      </c>
+      <c r="H425" t="s" s="0">
+        <v>1457</v>
+      </c>
+      <c r="I425" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="J425" t="n" s="2">
+        <v>4.1</v>
+      </c>
+      <c r="K425" t="s">
+        <v>29</v>
+      </c>
+      <c r="L425" t="s">
+        <v>29</v>
+      </c>
+      <c r="M425" s="3">
+        <f>IFERROR(K425/J425,0)</f>
+      </c>
+      <c r="N425" t="s">
+        <v>1436</v>
+      </c>
+      <c r="O425" t="s">
+        <v>711</v>
+      </c>
+      <c r="P425" t="s">
+        <v>1458</v>
+      </c>
+      <c r="Q425" t="s">
+        <v>29</v>
+      </c>
+      <c r="R425" t="s">
+        <v>1459</v>
+      </c>
+      <c r="S425" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="426">
+      <c r="A426" t="s" s="0">
+        <v>1433</v>
+      </c>
+      <c r="B426" t="s" s="0">
+        <v>1167</v>
+      </c>
+      <c r="C426" t="s" s="0">
+        <v>1399</v>
+      </c>
+      <c r="D426" t="s" s="0">
+        <v>1434</v>
+      </c>
+      <c r="E426" t="s" s="0">
+        <v>216</v>
+      </c>
+      <c r="F426" t="s" s="0">
+        <v>1435</v>
+      </c>
+      <c r="G426" t="s" s="0">
+        <v>1086</v>
+      </c>
+      <c r="H426" t="s" s="0">
+        <v>1460</v>
+      </c>
+      <c r="I426" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="J426" t="n" s="2">
+        <v>3.9</v>
+      </c>
+      <c r="K426" t="n" s="2">
+        <v>3.2</v>
+      </c>
+      <c r="L426" t="n" s="2">
+        <v>0.7</v>
+      </c>
+      <c r="M426" s="3">
+        <f>IFERROR(K426/J426,0)</f>
+      </c>
+      <c r="N426" t="s">
+        <v>1436</v>
+      </c>
+      <c r="O426" t="s">
+        <v>711</v>
+      </c>
+      <c r="P426" t="s">
+        <v>1461</v>
+      </c>
+      <c r="Q426" t="s">
+        <v>1462</v>
+      </c>
+      <c r="R426" t="s">
+        <v>1463</v>
+      </c>
+      <c r="S426" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="427">
+      <c r="A427" t="s" s="0">
+        <v>1433</v>
+      </c>
+      <c r="B427" t="s" s="0">
+        <v>1167</v>
+      </c>
+      <c r="C427" t="s" s="0">
+        <v>1399</v>
+      </c>
+      <c r="D427" t="s" s="0">
+        <v>1434</v>
+      </c>
+      <c r="E427" t="s" s="0">
+        <v>216</v>
+      </c>
+      <c r="F427" t="s" s="0">
+        <v>1435</v>
+      </c>
+      <c r="G427" t="s" s="0">
+        <v>959</v>
+      </c>
+      <c r="H427" t="s" s="0">
+        <v>449</v>
+      </c>
+      <c r="I427" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="J427" t="n" s="2">
+        <v>4.0</v>
+      </c>
+      <c r="K427" t="n" s="2">
+        <v>3.4</v>
+      </c>
+      <c r="L427" t="n" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="M427" s="3">
+        <f>IFERROR(K427/J427,0)</f>
+      </c>
+      <c r="N427" t="s">
+        <v>1436</v>
+      </c>
+      <c r="O427" t="s">
+        <v>711</v>
+      </c>
+      <c r="P427" t="s">
+        <v>1451</v>
+      </c>
+      <c r="Q427" t="s">
+        <v>1464</v>
+      </c>
+      <c r="R427" t="s">
+        <v>1465</v>
+      </c>
+      <c r="S427" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="428">
+      <c r="A428" t="s" s="0">
+        <v>1433</v>
+      </c>
+      <c r="B428" t="s" s="0">
+        <v>1167</v>
+      </c>
+      <c r="C428" t="s" s="0">
+        <v>1399</v>
+      </c>
+      <c r="D428" t="s" s="0">
+        <v>1434</v>
+      </c>
+      <c r="E428" t="s" s="0">
+        <v>216</v>
+      </c>
+      <c r="F428" t="s" s="0">
+        <v>1435</v>
+      </c>
+      <c r="G428" t="s" s="0">
+        <v>780</v>
+      </c>
+      <c r="H428" t="s" s="0">
+        <v>1204</v>
+      </c>
+      <c r="I428" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="J428" t="n" s="2">
+        <v>4.5</v>
+      </c>
+      <c r="K428" t="n" s="2">
+        <v>3.8</v>
+      </c>
+      <c r="L428" t="n" s="2">
+        <v>0.7</v>
+      </c>
+      <c r="M428" s="3">
+        <f>IFERROR(K428/J428,0)</f>
+      </c>
+      <c r="N428" t="s">
+        <v>1436</v>
+      </c>
+      <c r="O428" t="s">
+        <v>711</v>
+      </c>
+      <c r="P428" t="s">
+        <v>1466</v>
+      </c>
+      <c r="Q428" t="s">
+        <v>1467</v>
+      </c>
+      <c r="R428" t="s">
+        <v>1468</v>
+      </c>
+      <c r="S428" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="429">
+      <c r="A429" t="s" s="0">
+        <v>1433</v>
+      </c>
+      <c r="B429" t="s" s="0">
+        <v>1167</v>
+      </c>
+      <c r="C429" t="s" s="0">
+        <v>1399</v>
+      </c>
+      <c r="D429" t="s" s="0">
+        <v>1434</v>
+      </c>
+      <c r="E429" t="s" s="0">
+        <v>216</v>
+      </c>
+      <c r="F429" t="s" s="0">
+        <v>1435</v>
+      </c>
+      <c r="G429" t="s" s="0">
+        <v>1469</v>
+      </c>
+      <c r="H429" t="s" s="0">
+        <v>1470</v>
+      </c>
+      <c r="I429" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="J429" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="K429" t="s">
+        <v>29</v>
+      </c>
+      <c r="L429" t="s">
+        <v>29</v>
+      </c>
+      <c r="M429" s="3">
+        <f>IFERROR(K429/J429,0)</f>
+      </c>
+      <c r="N429" t="s">
+        <v>1436</v>
+      </c>
+      <c r="O429" t="s">
+        <v>711</v>
+      </c>
+      <c r="P429" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q429" t="s">
+        <v>29</v>
+      </c>
+      <c r="R429" t="s">
+        <v>29</v>
+      </c>
+      <c r="S429" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="430">
+      <c r="A430" t="s" s="0">
+        <v>1471</v>
+      </c>
+      <c r="B430" t="s" s="0">
+        <v>1167</v>
+      </c>
+      <c r="C430" t="s" s="0">
+        <v>1472</v>
+      </c>
+      <c r="D430" t="s" s="0">
+        <v>1473</v>
+      </c>
+      <c r="E430" t="s" s="0">
+        <v>1474</v>
+      </c>
+      <c r="F430" t="s" s="0">
+        <v>1475</v>
+      </c>
+      <c r="G430" t="s" s="0">
+        <v>253</v>
+      </c>
+      <c r="H430" t="s" s="0">
+        <v>669</v>
+      </c>
+      <c r="I430" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="J430" t="n" s="2">
+        <v>3.03</v>
+      </c>
+      <c r="K430" t="s">
+        <v>29</v>
+      </c>
+      <c r="L430" t="s">
+        <v>29</v>
+      </c>
+      <c r="M430" s="3">
+        <f>IFERROR(K430/J430,0)</f>
+      </c>
+      <c r="N430" t="s">
+        <v>267</v>
+      </c>
+      <c r="O430" t="s">
+        <v>208</v>
+      </c>
+      <c r="P430" t="s">
+        <v>1476</v>
+      </c>
+      <c r="Q430" t="s">
+        <v>29</v>
+      </c>
+      <c r="R430" t="s">
+        <v>1477</v>
+      </c>
+      <c r="S430" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="431">
+      <c r="A431" t="s" s="0">
+        <v>1471</v>
+      </c>
+      <c r="B431" t="s" s="0">
+        <v>1167</v>
+      </c>
+      <c r="C431" t="s" s="0">
+        <v>1472</v>
+      </c>
+      <c r="D431" t="s" s="0">
+        <v>1473</v>
+      </c>
+      <c r="E431" t="s" s="0">
+        <v>1474</v>
+      </c>
+      <c r="F431" t="s" s="0">
+        <v>1475</v>
+      </c>
+      <c r="G431" t="s" s="0">
+        <v>63</v>
+      </c>
+      <c r="H431" t="s" s="0">
+        <v>108</v>
+      </c>
+      <c r="I431" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="J431" t="n" s="2">
+        <v>3.45</v>
+      </c>
+      <c r="K431" t="n" s="2">
+        <v>2.4</v>
+      </c>
+      <c r="L431" t="n" s="2">
+        <v>1.05</v>
+      </c>
+      <c r="M431" s="3">
+        <f>IFERROR(K431/J431,0)</f>
+      </c>
+      <c r="N431" t="s">
+        <v>267</v>
+      </c>
+      <c r="O431" t="s">
+        <v>208</v>
+      </c>
+      <c r="P431" t="s">
+        <v>1478</v>
+      </c>
+      <c r="Q431" t="s">
+        <v>1479</v>
+      </c>
+      <c r="R431" t="s">
+        <v>1480</v>
+      </c>
+      <c r="S431" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="432">
+      <c r="A432" t="s" s="0">
+        <v>1471</v>
+      </c>
+      <c r="B432" t="s" s="0">
+        <v>1167</v>
+      </c>
+      <c r="C432" t="s" s="0">
+        <v>1472</v>
+      </c>
+      <c r="D432" t="s" s="0">
+        <v>1473</v>
+      </c>
+      <c r="E432" t="s" s="0">
+        <v>1474</v>
+      </c>
+      <c r="F432" t="s" s="0">
+        <v>1475</v>
+      </c>
+      <c r="G432" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="H432" t="s" s="0">
+        <v>157</v>
+      </c>
+      <c r="I432" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="J432" t="n" s="2">
+        <v>3.8</v>
+      </c>
+      <c r="K432" t="n" s="2">
+        <v>2.4</v>
+      </c>
+      <c r="L432" t="n" s="2">
+        <v>1.4</v>
+      </c>
+      <c r="M432" s="3">
+        <f>IFERROR(K432/J432,0)</f>
+      </c>
+      <c r="N432" t="s">
+        <v>267</v>
+      </c>
+      <c r="O432" t="s">
+        <v>208</v>
+      </c>
+      <c r="P432" t="s">
+        <v>1481</v>
+      </c>
+      <c r="Q432" t="s">
+        <v>1482</v>
+      </c>
+      <c r="R432" t="s">
+        <v>1483</v>
+      </c>
+      <c r="S432" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="433">
+      <c r="A433" t="s" s="0">
+        <v>1471</v>
+      </c>
+      <c r="B433" t="s" s="0">
+        <v>1167</v>
+      </c>
+      <c r="C433" t="s" s="0">
+        <v>1472</v>
+      </c>
+      <c r="D433" t="s" s="0">
+        <v>1473</v>
+      </c>
+      <c r="E433" t="s" s="0">
+        <v>1474</v>
+      </c>
+      <c r="F433" t="s" s="0">
+        <v>1475</v>
+      </c>
+      <c r="G433" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="H433" t="s" s="0">
+        <v>347</v>
+      </c>
+      <c r="I433" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="J433" t="n" s="2">
+        <v>4.0</v>
+      </c>
+      <c r="K433" t="n" s="2">
+        <v>2.5</v>
+      </c>
+      <c r="L433" t="n" s="2">
+        <v>1.5</v>
+      </c>
+      <c r="M433" s="3">
+        <f>IFERROR(K433/J433,0)</f>
+      </c>
+      <c r="N433" t="s">
+        <v>267</v>
+      </c>
+      <c r="O433" t="s">
+        <v>208</v>
+      </c>
+      <c r="P433" t="s">
+        <v>1484</v>
+      </c>
+      <c r="Q433" t="s">
+        <v>1485</v>
+      </c>
+      <c r="R433" t="s">
+        <v>1486</v>
+      </c>
+      <c r="S433" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="434">
+      <c r="A434" t="s" s="0">
+        <v>1471</v>
+      </c>
+      <c r="B434" t="s" s="0">
+        <v>1167</v>
+      </c>
+      <c r="C434" t="s" s="0">
+        <v>1472</v>
+      </c>
+      <c r="D434" t="s" s="0">
+        <v>1473</v>
+      </c>
+      <c r="E434" t="s" s="0">
+        <v>1474</v>
+      </c>
+      <c r="F434" t="s" s="0">
+        <v>1475</v>
+      </c>
+      <c r="G434" t="s" s="0">
+        <v>690</v>
+      </c>
+      <c r="H434" t="s" s="0">
+        <v>182</v>
+      </c>
+      <c r="I434" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="J434" t="n" s="2">
+        <v>5.0</v>
+      </c>
+      <c r="K434" t="n" s="2">
+        <v>3.5</v>
+      </c>
+      <c r="L434" t="n" s="2">
+        <v>1.5</v>
+      </c>
+      <c r="M434" s="3">
+        <f>IFERROR(K434/J434,0)</f>
+      </c>
+      <c r="N434" t="s">
+        <v>267</v>
+      </c>
+      <c r="O434" t="s">
+        <v>208</v>
+      </c>
+      <c r="P434" t="s">
+        <v>425</v>
+      </c>
+      <c r="Q434" t="s">
+        <v>1487</v>
+      </c>
+      <c r="R434" t="s">
+        <v>29</v>
+      </c>
+      <c r="S434" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="435">
+      <c r="A435" t="s" s="0">
+        <v>1488</v>
+      </c>
+      <c r="B435" t="s" s="0">
+        <v>1167</v>
+      </c>
+      <c r="C435" t="s" s="0">
+        <v>1489</v>
+      </c>
+      <c r="D435" t="s" s="0">
+        <v>1490</v>
+      </c>
+      <c r="E435" t="s" s="0">
+        <v>600</v>
+      </c>
+      <c r="F435" t="s" s="0">
+        <v>844</v>
+      </c>
+      <c r="G435" t="s" s="0">
+        <v>280</v>
+      </c>
+      <c r="H435" t="s" s="0">
+        <v>394</v>
+      </c>
+      <c r="I435" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="J435" t="n" s="2">
+        <v>2.7</v>
+      </c>
+      <c r="K435" t="s">
+        <v>29</v>
+      </c>
+      <c r="L435" t="s">
+        <v>29</v>
+      </c>
+      <c r="M435" s="3">
+        <f>IFERROR(K435/J435,0)</f>
+      </c>
+      <c r="N435" t="s">
+        <v>93</v>
+      </c>
+      <c r="O435" t="s">
+        <v>204</v>
+      </c>
+      <c r="P435" t="s">
+        <v>1491</v>
+      </c>
+      <c r="Q435" t="s">
+        <v>29</v>
+      </c>
+      <c r="R435" t="s">
+        <v>1492</v>
+      </c>
+      <c r="S435" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="436">
+      <c r="A436" t="s" s="0">
+        <v>1488</v>
+      </c>
+      <c r="B436" t="s" s="0">
+        <v>1167</v>
+      </c>
+      <c r="C436" t="s" s="0">
+        <v>1489</v>
+      </c>
+      <c r="D436" t="s" s="0">
+        <v>1490</v>
+      </c>
+      <c r="E436" t="s" s="0">
+        <v>600</v>
+      </c>
+      <c r="F436" t="s" s="0">
+        <v>844</v>
+      </c>
+      <c r="G436" t="s" s="0">
+        <v>136</v>
+      </c>
+      <c r="H436" t="s" s="0">
+        <v>656</v>
+      </c>
+      <c r="I436" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="J436" t="n" s="2">
+        <v>2.75</v>
+      </c>
+      <c r="K436" t="s">
+        <v>29</v>
+      </c>
+      <c r="L436" t="s">
+        <v>29</v>
+      </c>
+      <c r="M436" s="3">
+        <f>IFERROR(K436/J436,0)</f>
+      </c>
+      <c r="N436" t="s">
+        <v>93</v>
+      </c>
+      <c r="O436" t="s">
+        <v>204</v>
+      </c>
+      <c r="P436" t="s">
+        <v>1493</v>
+      </c>
+      <c r="Q436" t="s">
+        <v>29</v>
+      </c>
+      <c r="R436" t="s">
+        <v>1494</v>
+      </c>
+      <c r="S436" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="437">
+      <c r="A437" t="s" s="0">
+        <v>1488</v>
+      </c>
+      <c r="B437" t="s" s="0">
+        <v>1167</v>
+      </c>
+      <c r="C437" t="s" s="0">
+        <v>1489</v>
+      </c>
+      <c r="D437" t="s" s="0">
+        <v>1490</v>
+      </c>
+      <c r="E437" t="s" s="0">
+        <v>600</v>
+      </c>
+      <c r="F437" t="s" s="0">
+        <v>844</v>
+      </c>
+      <c r="G437" t="s" s="0">
+        <v>136</v>
+      </c>
+      <c r="H437" t="s" s="0">
+        <v>662</v>
+      </c>
+      <c r="I437" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="J437" t="n" s="2">
+        <v>2.75</v>
+      </c>
+      <c r="K437" t="n" s="2">
+        <v>2.4</v>
+      </c>
+      <c r="L437" t="n" s="2">
+        <v>0.35</v>
+      </c>
+      <c r="M437" s="3">
+        <f>IFERROR(K437/J437,0)</f>
+      </c>
+      <c r="N437" t="s">
+        <v>93</v>
+      </c>
+      <c r="O437" t="s">
+        <v>204</v>
+      </c>
+      <c r="P437" t="s">
+        <v>1495</v>
+      </c>
+      <c r="Q437" t="s">
+        <v>1496</v>
+      </c>
+      <c r="R437" t="s">
+        <v>1497</v>
+      </c>
+      <c r="S437" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="438">
+      <c r="A438" t="s" s="0">
+        <v>1488</v>
+      </c>
+      <c r="B438" t="s" s="0">
+        <v>1167</v>
+      </c>
+      <c r="C438" t="s" s="0">
+        <v>1489</v>
+      </c>
+      <c r="D438" t="s" s="0">
+        <v>1490</v>
+      </c>
+      <c r="E438" t="s" s="0">
+        <v>600</v>
+      </c>
+      <c r="F438" t="s" s="0">
+        <v>844</v>
+      </c>
+      <c r="G438" t="s" s="0">
+        <v>136</v>
+      </c>
+      <c r="H438" t="s" s="0">
+        <v>659</v>
+      </c>
+      <c r="I438" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="J438" t="n" s="2">
+        <v>2.9</v>
+      </c>
+      <c r="K438" t="n" s="2">
+        <v>2.6</v>
+      </c>
+      <c r="L438" t="n" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="M438" s="3">
+        <f>IFERROR(K438/J438,0)</f>
+      </c>
+      <c r="N438" t="s">
+        <v>93</v>
+      </c>
+      <c r="O438" t="s">
+        <v>204</v>
+      </c>
+      <c r="P438" t="s">
+        <v>790</v>
+      </c>
+      <c r="Q438" t="s">
+        <v>1498</v>
+      </c>
+      <c r="R438" t="s">
+        <v>1499</v>
+      </c>
+      <c r="S438" t="s">
+        <v>48</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
